--- a/input/system-requirements/SRV DAK_functional and non-functional requirements.xlsx
+++ b/input/system-requirements/SRV DAK_functional and non-functional requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greeninkltd-my.sharepoint.com/personal/vfc_greenink_co_uk/Documents/Live Jobs/WHO Health Emergencies/GIP03451/2_Edited files/edit3/work in progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{B42C4E21-00CB-504C-93F6-2E5BE549F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC05480-EBB2-4C97-A434-2DD1ED0F91AA}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{B42C4E21-00CB-504C-93F6-2E5BE549F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EC93DC2-AE0A-476A-B69C-A92027AA0281}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A364870C-86B3-C147-A494-BA544CC03900}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A364870C-86B3-C147-A494-BA544CC03900}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -203,7 +203,8 @@
     <t>The non-functional requirement</t>
   </si>
   <si>
-    <t>This work is available under the license:</t>
+    <t>https://smart.who.int/dak-srv/v0.9.9/SRV DAK_functional and non-functional requirements.xlsx
+© World Health Organization 2026. Some rights reserved. This work is available under the:</t>
   </si>
   <si>
     <t>CC BY-NC-SA 4.0 licence</t>
@@ -4036,8 +4037,8 @@
   </sheetPr>
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4513,7 +4514,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="32.25" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="46" t="s">
         <v>24</v>
@@ -8667,7 +8668,7 @@
   </sheetPr>
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9470,6 +9471,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A6DDC313EDC9A43B330D8B6305883A5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5928234f4025fc4019168d76bfea477f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73389989-ac93-4f39-a9f3-2949bbf25fcc" xmlns:ns3="51983ca6-de84-41fa-9a65-1d08ee1009bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7403ec872b63f95209dea35eae5aa28" ns2:_="" ns3:_="">
     <xsd:import namespace="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
@@ -9732,7 +9742,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
@@ -9744,23 +9754,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0279E23A-D70F-42E5-B1F2-631EF5BEB6D1}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E22A39C-57A4-464D-BAB8-5FE8F52BE328}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4017957B-ECC1-4C2E-8371-5F86264FE1DF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0279E23A-D70F-42E5-B1F2-631EF5BEB6D1}"/>
 </file>